--- a/data/trans_bre/P35-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P35-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1016799025830234</v>
+        <v>0.04024425671119889</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.173188991748237</v>
+        <v>3.001411917587218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.045095116950583</v>
+        <v>3.974167767816815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.86768234124153</v>
+        <v>-2.78641497571421</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.007481586380397236</v>
+        <v>-0.0002024540933509618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1164278455745379</v>
+        <v>0.1108931615439277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1649440997085782</v>
+        <v>0.1624231215586726</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.08146698445363257</v>
+        <v>-0.08108475574449306</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.507419188983601</v>
+        <v>8.684335273650493</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.45538414587121</v>
+        <v>12.75367322044329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.46172665556274</v>
+        <v>13.83454857103273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.592009179736719</v>
+        <v>6.53925597029709</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.52446352797127</v>
+        <v>0.5317587102685436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6170661251690648</v>
+        <v>0.5817688716168538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6992401843974648</v>
+        <v>0.7276075687506441</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2275326498184244</v>
+        <v>0.2195278476000951</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.922756298974283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.807442564520937</v>
+        <v>5.807442564520943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4775710640637182</v>
@@ -749,7 +749,7 @@
         <v>0.311956279398081</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1657464314854788</v>
+        <v>0.165746431485479</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.825510707994316</v>
+        <v>3.590490520988107</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.717946501108465</v>
+        <v>4.638317433021941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.223762911931213</v>
+        <v>4.725360467852453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.494479203207152</v>
+        <v>1.615316849746766</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2077343164107848</v>
+        <v>0.2011482466572147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1665063323870364</v>
+        <v>0.1686146665323883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1403008272808804</v>
+        <v>0.1546787789408575</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04027287420884615</v>
+        <v>0.04133108299802563</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.0662351589608</v>
+        <v>11.47309913890921</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.13850494064168</v>
+        <v>13.23134328211554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.75231637099942</v>
+        <v>13.2148544772581</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.09423920993395</v>
+        <v>9.966882899686869</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7962631922638878</v>
+        <v>0.8128204904065346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5530880911473084</v>
+        <v>0.5726436133161472</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4807457763883788</v>
+        <v>0.5009474361255231</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3107920036794048</v>
+        <v>0.3070193768448859</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2843795042343056</v>
+        <v>0.5874077321080166</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.672804227529832</v>
+        <v>3.764001002501353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2118846871473842</v>
+        <v>0.195373799996101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.154007986873699</v>
+        <v>-1.360066887055591</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.009903769747260188</v>
+        <v>0.02378084605343416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1247056799377376</v>
+        <v>0.1233586195519817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008918521204572509</v>
+        <v>0.008645540630249145</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05961557127186543</v>
+        <v>-0.03682532859107619</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.14968860957546</v>
+        <v>10.57855006209927</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.57218191280815</v>
+        <v>14.03118197486763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.19889492590491</v>
+        <v>10.47670755783581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.860730851081686</v>
+        <v>8.211453024777994</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5691588783846909</v>
+        <v>0.5954386948848036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5656177063352705</v>
+        <v>0.5873695334511617</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.335668978318573</v>
+        <v>0.3627766669813186</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2633214115610613</v>
+        <v>0.2720131592519295</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.354808214418519</v>
+        <v>-3.183069937673376</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.473542618351561</v>
+        <v>3.515148536517592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.23909892024414</v>
+        <v>0.876137480281988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.801724793140506</v>
+        <v>-1.701999246843876</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1848293224118703</v>
+        <v>-0.1731195244440172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1233424592162345</v>
+        <v>0.1168800496977004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04438050913326016</v>
+        <v>0.03197945316670427</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04822691853562149</v>
+        <v>-0.04210529288635358</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.185880021108663</v>
+        <v>3.300550516480087</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.13116123092013</v>
+        <v>12.58198621357636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.587034447917649</v>
+        <v>9.646856990335676</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.280537453094863</v>
+        <v>6.405497436741221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2137800786977955</v>
+        <v>0.2178115658823946</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5031468568521184</v>
+        <v>0.5114418348670873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3813758745807952</v>
+        <v>0.3959251690630225</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1877493186550186</v>
+        <v>0.1887346454792515</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.945867349296048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.497881695771948</v>
+        <v>3.497881695771943</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2317893317649524</v>
@@ -1049,7 +1049,7 @@
         <v>0.2490279139164491</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1017411834756208</v>
+        <v>0.1017411834756206</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.939739534385224</v>
+        <v>2.116682764658133</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.097380911072184</v>
+        <v>6.13306234473175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.682045696538029</v>
+        <v>4.722286299877386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.478011790685869</v>
+        <v>1.353412667870658</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1047756443814707</v>
+        <v>0.1154246350310469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2229440517313927</v>
+        <v>0.2259809293727562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1597508726942548</v>
+        <v>0.1590428054457007</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04200137714637107</v>
+        <v>0.03873285162510505</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.041765194379903</v>
+        <v>6.010287038515638</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.55682178182887</v>
+        <v>10.60688338853202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.392496253495153</v>
+        <v>9.27128887295517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.914585696299598</v>
+        <v>5.675350201111053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3669462682954729</v>
+        <v>0.3655106662210781</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4300106384246101</v>
+        <v>0.4230348412393938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3514262754807915</v>
+        <v>0.3476623465123873</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1813838635124092</v>
+        <v>0.171619835789784</v>
       </c>
     </row>
     <row r="19">
